--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279496.1823597071</v>
+        <v>277608.6008433055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567575.3663382627</v>
+        <v>191075.0063994936</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>348.3452136095208</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>313.9700733035868</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>101.7177065691263</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>317.0837352438118</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>227.1165746617145</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>76.71587097450809</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>81.64802493589345</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>85.08287502851692</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.5533848276617</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>125.872192856332</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>224.7502551838231</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051971</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>85.16229262486996</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>93.69586997053497</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113162</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.310533596380282</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.02510219382525</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>170.9606397709133</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>17.58283508357596</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>55.22804619697914</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>52.19102345058397</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>194.9576419790504</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>92.4121556686945</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>16.51570193636773</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>122.6536804956932</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329146</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373584</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.978909181595</v>
+        <v>1289.473302026323</v>
       </c>
       <c r="D2" t="n">
-        <v>1132.713210574844</v>
+        <v>931.2076034195729</v>
       </c>
       <c r="E2" t="n">
-        <v>746.9249579765999</v>
+        <v>545.4193508213286</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>538.4738500721252</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>524.5504460107161</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3838260558018</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3838260558018</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3838260558018</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3838260558018</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>97.9896501033331</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2017.897565358469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2017.897565358469</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.758233382657</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.346854164887</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>279.346854164887</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>131.4337605824938</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>645.6562317459358</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>431.3678085640985</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>711.3150639356909</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626914</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.146930626914</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1658.820279285841</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084172</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>331.2032503805103</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>181.0866109681746</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>181.0866109681746</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>181.0866109681746</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>501.108524424795</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084172</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084172</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.438612565609</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7169704793904</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>591.7807875514835</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>441.6641481391478</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362488</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5212,37 +5212,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557899</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557899</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557899</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557899</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520938</v>
+        <v>803.861694098789</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229205</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793904</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5264,28 +5264,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805453</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,19 +5294,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>897.6601296826479</v>
+        <v>1264.669083615011</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>2069.080661879162</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305957</v>
+        <v>527.0436439308537</v>
       </c>
       <c r="C16" t="n">
-        <v>437.6964226305957</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D16" t="n">
-        <v>287.57978321826</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>139.6666896358669</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>139.6666896358669</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286131</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305957</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305957</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>458.9654706914334</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.325632214049</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M18" t="n">
-        <v>2030.299435654558</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306375</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027307</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903949</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903949</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903949</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903949</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.080727641368</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>1370.080727641368</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>1080.663557604407</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>1080.663557604407</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>859.8709784608773</v>
+        <v>420.322614832457</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5729,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>424.0331423495621</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>1138.699705022018</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>1138.699705022018</v>
+        <v>618.767531976281</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>465.000566144016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>465.000566144016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1301.989359467952</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1078.203944257458</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>789.0753054710162</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710162</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>646.6490309742558</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>646.6490309742558</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6309,22 +6309,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>450.0103882072916</v>
+      </c>
+      <c r="C28" t="n">
+        <v>450.0103882072916</v>
+      </c>
+      <c r="D28" t="n">
+        <v>356.6647764207314</v>
+      </c>
+      <c r="E28" t="n">
+        <v>208.7516828383383</v>
+      </c>
+      <c r="F28" t="n">
+        <v>208.7516828383383</v>
+      </c>
+      <c r="G28" t="n">
+        <v>208.7516828383383</v>
+      </c>
+      <c r="H28" t="n">
+        <v>208.7516828383383</v>
+      </c>
+      <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="C28" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="D28" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="E28" t="n">
-        <v>97.21709146028597</v>
-      </c>
-      <c r="F28" t="n">
-        <v>97.21709146028597</v>
-      </c>
-      <c r="G28" t="n">
-        <v>97.21709146028597</v>
-      </c>
-      <c r="H28" t="n">
-        <v>97.21709146028597</v>
-      </c>
-      <c r="I28" t="n">
-        <v>97.21709146028597</v>
-      </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>898.792518248839</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>898.792518248839</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>898.792518248839</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>670.8029673508216</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>450.0103882072916</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508385</v>
+        <v>658.7225911205036</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043024</v>
+        <v>545.5472734739674</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733378</v>
+        <v>451.1914993430022</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723155</v>
+        <v>451.1914993430022</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.787274970146</v>
       </c>
       <c r="U31" t="n">
-        <v>1551.945602958619</v>
+        <v>1479.419501465075</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034103</v>
+        <v>1355.526894903769</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278513</v>
+        <v>1121.870590148179</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618666</v>
+        <v>949.6419045315321</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997073</v>
+        <v>784.6101906693726</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6920,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.06055659054</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614728</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>263.5382936126484</v>
+        <v>649.7480011519469</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605658</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514088</v>
@@ -7184,10 +7184,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>323.658114660566</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>323.658114660566</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>323.658114660566</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>514.1726231678281</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.069692924717</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.069692924717</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649689</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605672</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605672</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1376.427095642728</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2045.890856945387</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>174.0465905668202</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>436.6666951822668</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>164.1915597637587</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>429.7445997144264</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>202.8611258896117</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.5685309419526</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>198.568530941954</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.27167002169921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>192.5414824280424</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>175.521446585557</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4684662695523</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8.871340411023985</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>268.6545173150014</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338605</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>231.0093062015982</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>96.42444956762839</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.963168004552813</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>56.2033173495178</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>103.0576765518773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5183938336525</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>74.28070619957781</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991064</v>
@@ -26323,34 +26323,34 @@
         <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
+        <v>293271.7948032817</v>
+      </c>
+      <c r="G2" t="n">
         <v>293271.7948032815</v>
-      </c>
-      <c r="G2" t="n">
-        <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089528</v>
+        <v>305116.6030089526</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284553</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338377</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284547</v>
+        <v>44162.60530284557</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758979</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759391</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759168</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189619</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189622</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002546</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002543</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-503995.4327594668</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.4464550777</v>
+        <v>85972.44645507794</v>
       </c>
       <c r="D6" t="n">
-        <v>85972.44645507791</v>
+        <v>85972.44645507785</v>
       </c>
       <c r="E6" t="n">
-        <v>-324663.361312907</v>
+        <v>-324760.8204388793</v>
       </c>
       <c r="F6" t="n">
-        <v>200496.675163989</v>
+        <v>200399.216038017</v>
       </c>
       <c r="G6" t="n">
-        <v>200496.6751639888</v>
+        <v>200399.2160380168</v>
       </c>
       <c r="H6" t="n">
-        <v>200496.6751639888</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="I6" t="n">
-        <v>200496.675163989</v>
+        <v>200399.2160380169</v>
       </c>
       <c r="J6" t="n">
-        <v>24073.45597139592</v>
+        <v>23975.99684542406</v>
       </c>
       <c r="K6" t="n">
-        <v>145373.3729711119</v>
+        <v>145354.8792331775</v>
       </c>
       <c r="L6" t="n">
-        <v>176626.0701463179</v>
+        <v>176626.0701463175</v>
       </c>
       <c r="M6" t="n">
-        <v>52167.96171334683</v>
+        <v>52167.96171334742</v>
       </c>
       <c r="N6" t="n">
         <v>186968.9769471847</v>
       </c>
       <c r="O6" t="n">
-        <v>186968.9769471844</v>
+        <v>186968.9769471847</v>
       </c>
       <c r="P6" t="n">
-        <v>142806.3716443391</v>
+        <v>142806.3716443389</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.5308321321906</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.952699460770305</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.8277610464302</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>184.5641676728515</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>89.79231049789968</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>122.1243940556985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>68.70517704842315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>65.01716704426441</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>321.7931707131945</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>95.17771585080737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>41.43760940271888</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>27.38738814000493</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,13 +29275,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.732215054787439e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>207.3204600535047</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5684716790593</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32078,28 +32078,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>126.0475280469432</v>
+        <v>440.6327310914255</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>238.7786052255657</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>425.8974584957647</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32573,13 +32573,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>236.6747845419272</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32807,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33032,10 +33032,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,31 +33266,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,7 +33424,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
@@ -33503,25 +33503,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>388.9994826499789</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>325.826064467992</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215735</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,31 +33980,31 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813465</v>
+        <v>324.253156413393</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215735</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>126.5421914114569</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>435.7437450400226</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,16 +34454,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>90.20175899432962</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>439.6064255770897</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>622.5691339392795</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515205989</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
@@ -35662,7 +35662,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>449.6185578749248</v>
+        <v>764.203760919407</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>365.4024032637853</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>749.4684883237463</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>35.49221078694597</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9607500655122</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>294.5326612602485</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>32.84984768042544</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>287.6105657924081</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>737.0001449101991</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>558.1120299915769</v>
       </c>
       <c r="M36" t="n">
-        <v>60.72709196759335</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415668</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.226021517838</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686872</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502437</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.72709196759357</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415667</v>
+        <v>672.2538186736132</v>
       </c>
       <c r="O39" t="n">
-        <v>676.226021517838</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.556183571462</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>253.1659894496765</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>783.7444073002429</v>
       </c>
       <c r="O42" t="n">
-        <v>676.226021517838</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>60.72709196759495</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>274.6901202199365</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
